--- a/DATA MINING.xlsx
+++ b/DATA MINING.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Attendence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMYLS\Documents\GitHub\Data-mining-Attendence\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="259">
   <si>
     <t>UNIVERSITY OF EDUCATION</t>
   </si>
@@ -868,6 +868,9 @@
   </si>
   <si>
     <t>Hafiz Shafique</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
   </si>
 </sst>
 </file>
@@ -1658,6 +1661,82 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1683,82 +1762,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4596,10 +4599,10 @@
   <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="L40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC40" sqref="AC40"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -4637,37 +4640,37 @@
       <c r="M1" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="O1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82" t="s">
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
       <c r="Y1" s="38"/>
       <c r="Z1" s="38"/>
-      <c r="AA1" s="83" t="s">
+      <c r="AA1" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="102"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="9"/>
@@ -4685,29 +4688,29 @@
       <c r="R2" s="39"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
-      <c r="U2" s="103" t="s">
+      <c r="U2" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
       <c r="AA2" s="39"/>
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="84" t="s">
+      <c r="AF2" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="103"/>
+      <c r="AJ2" s="103"/>
+      <c r="AK2" s="103"/>
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="103"/>
     </row>
     <row r="3" spans="1:40" ht="18" customHeight="1">
       <c r="B3" s="13"/>
@@ -4717,50 +4720,50 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86" t="s">
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87" t="s">
+      <c r="M3" s="105"/>
+      <c r="N3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="86" t="s">
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="88" t="s">
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="82" t="s">
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
     </row>
     <row r="4" spans="1:40" ht="9.75" customHeight="1" thickBot="1">
       <c r="B4" s="15"/>
@@ -4768,101 +4771,103 @@
       <c r="AD4" s="31"/>
     </row>
     <row r="5" spans="1:40" ht="19.5" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="101" t="s">
+      <c r="E5" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="88" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="107"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="102"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="89"/>
     </row>
     <row r="7" spans="1:40" ht="19.5" customHeight="1">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="16">
         <v>1</v>
       </c>
@@ -4968,7 +4973,7 @@
       <c r="AL7" s="50">
         <v>35</v>
       </c>
-      <c r="AM7" s="102"/>
+      <c r="AM7" s="89"/>
     </row>
     <row r="8" spans="1:40" ht="19.5" customHeight="1">
       <c r="A8" s="17">
@@ -7672,6 +7677,40 @@
   </sheetData>
   <autoFilter ref="AN7:AN59"/>
   <mergeCells count="50">
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="AA1:AM1"/>
+    <mergeCell ref="AF2:AM2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AL3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AK5:AK6"/>
     <mergeCell ref="AL5:AL6"/>
@@ -7688,40 +7727,6 @@
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AA1:AM1"/>
-    <mergeCell ref="AF2:AM2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AL3"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.15" top="0.2" bottom="0.2" header="0.26" footer="0.16"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>

--- a/DATA MINING.xlsx
+++ b/DATA MINING.xlsx
@@ -1661,6 +1661,58 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
@@ -1697,14 +1749,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1718,50 +1762,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4602,7 +4602,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5:G6"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -4640,37 +4640,37 @@
       <c r="M1" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="101" t="s">
+      <c r="O1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
       <c r="Y1" s="38"/>
       <c r="Z1" s="38"/>
-      <c r="AA1" s="102" t="s">
+      <c r="AA1" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="9"/>
@@ -4688,29 +4688,29 @@
       <c r="R2" s="39"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
-      <c r="U2" s="90" t="s">
+      <c r="U2" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
       <c r="AA2" s="39"/>
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="103" t="s">
+      <c r="AF2" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="103"/>
-      <c r="AK2" s="103"/>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="103"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
     </row>
     <row r="3" spans="1:40" ht="18" customHeight="1">
       <c r="B3" s="13"/>
@@ -4720,50 +4720,50 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="105" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="106" t="s">
+      <c r="M3" s="86"/>
+      <c r="N3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="105" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="107" t="s">
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="101" t="s">
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="82" t="s">
         <v>257</v>
       </c>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="101"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
     </row>
     <row r="4" spans="1:40" ht="9.75" customHeight="1" thickBot="1">
       <c r="B4" s="15"/>
@@ -4771,103 +4771,103 @@
       <c r="AD4" s="31"/>
     </row>
     <row r="5" spans="1:40" ht="19.5" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="91"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="88" t="s">
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="99"/>
+      <c r="AM5" s="101" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="89"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="98"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="102"/>
     </row>
     <row r="7" spans="1:40" ht="19.5" customHeight="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="100"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="16">
         <v>1</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="AL7" s="50">
         <v>35</v>
       </c>
-      <c r="AM7" s="89"/>
+      <c r="AM7" s="102"/>
     </row>
     <row r="8" spans="1:40" ht="19.5" customHeight="1">
       <c r="A8" s="17">
@@ -5041,7 +5041,9 @@
       <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="22"/>
@@ -7549,7 +7551,7 @@
       </c>
       <c r="E56" s="3">
         <f t="shared" ref="E56:AF56" si="1">SUM(E8:E55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="1"/>
@@ -7677,40 +7679,6 @@
   </sheetData>
   <autoFilter ref="AN7:AN59"/>
   <mergeCells count="50">
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AA1:AM1"/>
-    <mergeCell ref="AF2:AM2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AL3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AK5:AK6"/>
     <mergeCell ref="AL5:AL6"/>
@@ -7727,6 +7695,40 @@
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="AA1:AM1"/>
+    <mergeCell ref="AF2:AM2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AL3"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.15" top="0.2" bottom="0.2" header="0.26" footer="0.16"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>

--- a/DATA MINING.xlsx
+++ b/DATA MINING.xlsx
@@ -1661,6 +1661,82 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1686,82 +1762,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4602,7 +4602,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -4640,37 +4640,37 @@
       <c r="M1" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="O1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82" t="s">
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
       <c r="Y1" s="38"/>
       <c r="Z1" s="38"/>
-      <c r="AA1" s="83" t="s">
+      <c r="AA1" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="102"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="9"/>
@@ -4688,29 +4688,29 @@
       <c r="R2" s="39"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
-      <c r="U2" s="103" t="s">
+      <c r="U2" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
       <c r="AA2" s="39"/>
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="84" t="s">
+      <c r="AF2" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="103"/>
+      <c r="AJ2" s="103"/>
+      <c r="AK2" s="103"/>
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="103"/>
     </row>
     <row r="3" spans="1:40" ht="18" customHeight="1">
       <c r="B3" s="13"/>
@@ -4720,50 +4720,50 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86" t="s">
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87" t="s">
+      <c r="M3" s="105"/>
+      <c r="N3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="86" t="s">
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="88" t="s">
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="82" t="s">
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
     </row>
     <row r="4" spans="1:40" ht="9.75" customHeight="1" thickBot="1">
       <c r="B4" s="15"/>
@@ -4771,103 +4771,103 @@
       <c r="AD4" s="31"/>
     </row>
     <row r="5" spans="1:40" ht="19.5" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="101" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="88" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="107"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="102"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="89"/>
     </row>
     <row r="7" spans="1:40" ht="19.5" customHeight="1">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="16">
         <v>1</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="AL7" s="50">
         <v>35</v>
       </c>
-      <c r="AM7" s="102"/>
+      <c r="AM7" s="89"/>
     </row>
     <row r="8" spans="1:40" ht="19.5" customHeight="1">
       <c r="A8" s="17">
@@ -4988,7 +4988,9 @@
       <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -7551,7 +7553,7 @@
       </c>
       <c r="E56" s="3">
         <f t="shared" ref="E56:AF56" si="1">SUM(E8:E55)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="1"/>
@@ -7679,6 +7681,40 @@
   </sheetData>
   <autoFilter ref="AN7:AN59"/>
   <mergeCells count="50">
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="AA1:AM1"/>
+    <mergeCell ref="AF2:AM2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AL3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AK5:AK6"/>
     <mergeCell ref="AL5:AL6"/>
@@ -7695,40 +7731,6 @@
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AA1:AM1"/>
-    <mergeCell ref="AF2:AM2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AL3"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.15" top="0.2" bottom="0.2" header="0.26" footer="0.16"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>

--- a/DATA MINING.xlsx
+++ b/DATA MINING.xlsx
@@ -1661,6 +1661,58 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
@@ -1697,14 +1749,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1718,50 +1762,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4602,7 +4602,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -4640,37 +4640,37 @@
       <c r="M1" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="101" t="s">
+      <c r="O1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
       <c r="Y1" s="38"/>
       <c r="Z1" s="38"/>
-      <c r="AA1" s="102" t="s">
+      <c r="AA1" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="9"/>
@@ -4688,29 +4688,29 @@
       <c r="R2" s="39"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
-      <c r="U2" s="90" t="s">
+      <c r="U2" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
       <c r="AA2" s="39"/>
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="103" t="s">
+      <c r="AF2" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="103"/>
-      <c r="AK2" s="103"/>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="103"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
     </row>
     <row r="3" spans="1:40" ht="18" customHeight="1">
       <c r="B3" s="13"/>
@@ -4720,50 +4720,50 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="105" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="106" t="s">
+      <c r="M3" s="86"/>
+      <c r="N3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="105" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="107" t="s">
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="101" t="s">
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="82" t="s">
         <v>257</v>
       </c>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="101"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
     </row>
     <row r="4" spans="1:40" ht="9.75" customHeight="1" thickBot="1">
       <c r="B4" s="15"/>
@@ -4771,103 +4771,103 @@
       <c r="AD4" s="31"/>
     </row>
     <row r="5" spans="1:40" ht="19.5" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="91"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="88" t="s">
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="99"/>
+      <c r="AM5" s="101" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="89"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="98"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="102"/>
     </row>
     <row r="7" spans="1:40" ht="19.5" customHeight="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="100"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="16">
         <v>1</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="AL7" s="50">
         <v>35</v>
       </c>
-      <c r="AM7" s="89"/>
+      <c r="AM7" s="102"/>
     </row>
     <row r="8" spans="1:40" ht="19.5" customHeight="1">
       <c r="A8" s="17">
@@ -4988,9 +4988,7 @@
       <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="19">
-        <v>1</v>
-      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -5043,9 +5041,7 @@
       <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
+      <c r="E9" s="19"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="22"/>
@@ -7553,7 +7549,7 @@
       </c>
       <c r="E56" s="3">
         <f t="shared" ref="E56:AF56" si="1">SUM(E8:E55)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="1"/>
@@ -7681,40 +7677,6 @@
   </sheetData>
   <autoFilter ref="AN7:AN59"/>
   <mergeCells count="50">
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AA1:AM1"/>
-    <mergeCell ref="AF2:AM2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AL3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AK5:AK6"/>
     <mergeCell ref="AL5:AL6"/>
@@ -7731,6 +7693,40 @@
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="AA1:AM1"/>
+    <mergeCell ref="AF2:AM2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AL3"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.15" top="0.2" bottom="0.2" header="0.26" footer="0.16"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>
